--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poland\Downloads\Examination BluePi_Naratip\QA_Quiz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38815BF0-EBCD-4AAE-AC08-7BC2A8F2FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAD9B4-FE31-4468-89D0-C9D1ACD23672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>Customer input field itemName = EMPTY, task completed = EMPTY</t>
   </si>
   <si>
-    <t>Customer create 2 tasks, task 1 deleted.</t>
-  </si>
-  <si>
-    <t>Customer create 2 tasks, task 2 deleted.</t>
+    <t>Customer create 2 tasks, ToDoList: task 2 deleted.</t>
+  </si>
+  <si>
+    <t>Customer create 2 tasks, ToDoList: task 1 deleted., CompletedList: remain task deleted.</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
